--- a/s2data1_tbl_hartwell.xlsx
+++ b/s2data1_tbl_hartwell.xlsx
@@ -1,89 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chase Polak\Downloads\GEOG 4300\Version 2 CURO-GICH\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC9834-F303-4D5D-9B3A-3DB9A5D5C67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>landlord</t>
-  </si>
-  <si>
-    <t>dilapidated</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>well maintained</t>
-  </si>
-  <si>
-    <t>intown_landlord</t>
-  </si>
-  <si>
-    <t>outtown_landlord</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>singleowner</t>
-  </si>
-  <si>
-    <t>moderate rehabilitation
- needed</t>
-  </si>
-  <si>
-    <t>substantial rehabilitation 
-needed</t>
-  </si>
-  <si>
-    <t>minor repairs
- needed</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Hartwell</t>
-  </si>
-  <si>
-    <t>p-value = 0.0002786</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">primary_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hartwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intown_landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outtown_landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleowner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,49 +87,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{162F3A1F-DA69-4D78-810E-338E948E05DB}" name="Table1" displayName="Table1" ref="A1:H5" totalsRowShown="0">
-  <autoFilter ref="A1:H5" xr:uid="{DD9DCC36-C8E1-46B9-AC08-638F3306F032}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{01D26CCA-047B-4FE1-9CFB-6FBEF7327C0E}" name="City"/>
-    <tableColumn id="2" xr3:uid="{AF40E45F-71AE-4099-BCA5-FA869E7FBD6B}" name="landlord"/>
-    <tableColumn id="3" xr3:uid="{E204730C-5F2F-4914-90E7-11483350E224}" name="dilapidated"/>
-    <tableColumn id="4" xr3:uid="{241FA77D-B32C-4A9B-BA7E-CD7C39C44508}" name="substantial rehabilitation _x000a_needed"/>
-    <tableColumn id="5" xr3:uid="{31CD4AD5-325B-4494-AADD-870601E3A492}" name="moderate rehabilitation_x000a_ needed"/>
-    <tableColumn id="6" xr3:uid="{CD16E25C-2E3B-41FE-9814-6D40356645AE}" name="minor repairs_x000a_ needed"/>
-    <tableColumn id="7" xr3:uid="{DDBE9F01-AC83-4EEF-B541-3182E23190D4}" name="sound"/>
-    <tableColumn id="8" xr3:uid="{A82A817D-0667-4D04-9ACB-4AEB0BB006B3}" name="well maintained"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,163 +375,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>6.7</v>
-      </c>
-      <c r="D2">
-        <v>13.3</v>
-      </c>
-      <c r="E2">
-        <v>21.7</v>
-      </c>
-      <c r="F2">
-        <v>6.7</v>
-      </c>
-      <c r="G2">
-        <v>16.7</v>
-      </c>
-      <c r="H2">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>22.7</v>
-      </c>
-      <c r="F3">
-        <v>22.7</v>
-      </c>
-      <c r="G3">
-        <v>27.3</v>
-      </c>
-      <c r="H3">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3.2</v>
-      </c>
-      <c r="D4">
-        <v>1.6</v>
-      </c>
-      <c r="E4">
-        <v>17.7</v>
-      </c>
-      <c r="F4">
-        <v>10.5</v>
-      </c>
-      <c r="G4">
-        <v>29.8</v>
-      </c>
-      <c r="H4">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5.9</v>
-      </c>
-      <c r="D5">
-        <v>6.4</v>
-      </c>
-      <c r="E5">
-        <v>25.1</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H5">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>